--- a/OcorrenciaMensal(Criminal)-Guarujá_2025.xlsx
+++ b/OcorrenciaMensal(Criminal)-Guarujá_2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/guilherme_peres_sptech_school/Documents/sptech/Projeto PI - 2 Semestre/vigilante-backend/Base de dados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/guilherme_peres_sptech_school/Documents/sptech/Projeto PI - 2 Semestre/vigilante-backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_F42C977FD3EF61BEFF505CAD04C7FF4EDC8D9BE6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA340190-BEE4-42B2-947A-91AA481C532E}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_F42C977FD3EF61BEFF505CAD04C7FF4EDC8D9BE6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{348E8A55-A646-42E8-9A92-069E9CA51826}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="91">
   <si>
     <t>Natureza</t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>Guarujá</t>
+  </si>
+  <si>
+    <t>Ano</t>
   </si>
 </sst>
 </file>
@@ -346,9 +349,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,15 +669,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="P1" sqref="P1:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="60" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,8 +726,11 @@
       <c r="O1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -764,8 +776,11 @@
       <c r="O2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2" s="2">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -809,7 +824,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -853,7 +868,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -897,7 +912,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -941,7 +956,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -985,7 +1000,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1029,7 +1044,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1073,7 +1088,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1117,7 +1132,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1161,7 +1176,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -1205,7 +1220,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1249,7 +1264,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -1293,7 +1308,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -1337,7 +1352,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>56</v>
       </c>
